--- a/Source_Data/historico_precios_alquileres_caba_clean.xlsx
+++ b/Source_Data/historico_precios_alquileres_caba_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago Viezzoli\Desktop\Bootcamp Jupi Analisis de datos\ProyectoJupi\Source_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{660C389D-E909-43D4-926B-10610C3E490F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712C89DC-EBC5-464E-BF64-9165CB715B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49239358-851B-415D-834B-F523E9DDE164}"/>
   </bookViews>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B0FF1C-3A9A-4711-A99C-84BDA8E45119}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,93 +470,70 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>32579</v>
+        <v>70218</v>
       </c>
       <c r="B2" s="2">
-        <v>43314</v>
+        <v>89615</v>
       </c>
       <c r="C2" s="2">
-        <v>69126</v>
+        <v>136103</v>
       </c>
       <c r="D2" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>115.531477332024</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>106.89615366856</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>96.891184214333293</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>70218</v>
+        <v>264691</v>
       </c>
       <c r="B3" s="2">
-        <v>89615</v>
+        <v>362688</v>
       </c>
       <c r="C3" s="2">
-        <v>136103</v>
+        <v>565643</v>
       </c>
       <c r="D3" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E3" s="3">
-        <v>115.531477332024</v>
+        <v>276.95605115497398</v>
       </c>
       <c r="F3" s="3">
-        <v>106.89615366856</v>
+        <v>304.71796016291898</v>
       </c>
       <c r="G3" s="3">
-        <v>96.891184214333293</v>
+        <v>315.59921530017698</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>264691</v>
+        <v>394202</v>
       </c>
       <c r="B4" s="2">
-        <v>362688</v>
+        <v>526592</v>
       </c>
       <c r="C4" s="2">
-        <v>565643</v>
+        <v>806818</v>
       </c>
       <c r="D4" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E4" s="3">
-        <v>276.95605115497398</v>
+        <v>48.929128682123697</v>
       </c>
       <c r="F4" s="3">
-        <v>304.71796016291898</v>
+        <v>45.191459325921997</v>
       </c>
       <c r="G4" s="3">
-        <v>315.59921530017698</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>394202</v>
-      </c>
-      <c r="B5" s="2">
-        <v>526592</v>
-      </c>
-      <c r="C5" s="2">
-        <v>806818</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2025</v>
-      </c>
-      <c r="E5" s="3">
-        <v>48.929128682123697</v>
-      </c>
-      <c r="F5" s="3">
-        <v>45.191459325921997</v>
-      </c>
-      <c r="G5" s="3">
         <v>42.637317177088697</v>
       </c>
     </row>
